--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntn1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H2">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>0.1256627930082359</v>
+        <v>0.1446490936166667</v>
       </c>
       <c r="R2">
-        <v>0.1256627930082359</v>
+        <v>0.8678945617</v>
       </c>
       <c r="S2">
-        <v>0.008977862450282276</v>
+        <v>0.005244581262693668</v>
       </c>
       <c r="T2">
-        <v>0.008977862450282276</v>
+        <v>0.004359555209142339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H3">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>1.596988907174784</v>
+        <v>1.895793451472222</v>
       </c>
       <c r="R3">
-        <v>1.596988907174784</v>
+        <v>17.06214106325</v>
       </c>
       <c r="S3">
-        <v>0.1140954008741645</v>
+        <v>0.06873629529872816</v>
       </c>
       <c r="T3">
-        <v>0.1140954008741645</v>
+        <v>0.08570550990170234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H4">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>4.258103738475524</v>
+        <v>4.944127641327778</v>
       </c>
       <c r="R4">
-        <v>4.258103738475524</v>
+        <v>44.49714877195001</v>
       </c>
       <c r="S4">
-        <v>0.3042162978230198</v>
+        <v>0.1792605714958025</v>
       </c>
       <c r="T4">
-        <v>0.3042162978230198</v>
+        <v>0.2235153730434261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H5">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>5.084258476235729</v>
+        <v>5.780255394211112</v>
       </c>
       <c r="R5">
-        <v>5.084258476235729</v>
+        <v>52.02229854790001</v>
       </c>
       <c r="S5">
-        <v>0.3632401617743332</v>
+        <v>0.2095762813032287</v>
       </c>
       <c r="T5">
-        <v>0.3632401617743332</v>
+        <v>0.2613152479971985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H6">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>0.1650214784256057</v>
+        <v>0.1943631452944445</v>
       </c>
       <c r="R6">
-        <v>0.1650214784256057</v>
+        <v>1.74926830765</v>
       </c>
       <c r="S6">
-        <v>0.01178980746154681</v>
+        <v>0.007047077064104044</v>
       </c>
       <c r="T6">
-        <v>0.01178980746154681</v>
+        <v>0.008786818237304738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.34355</v>
+      </c>
+      <c r="I7">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="J7">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>29.501953</v>
+      </c>
+      <c r="N7">
+        <v>59.003906</v>
+      </c>
+      <c r="O7">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P7">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q7">
+        <v>3.378465317716667</v>
+      </c>
+      <c r="R7">
+        <v>20.2707919063</v>
+      </c>
+      <c r="S7">
+        <v>0.1224939296813933</v>
+      </c>
+      <c r="T7">
+        <v>0.1018230097852571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0788065</v>
+      </c>
+      <c r="H8">
+        <v>0.157613</v>
+      </c>
+      <c r="I8">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J8">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.263127</v>
+      </c>
+      <c r="N8">
+        <v>2.526254</v>
+      </c>
+      <c r="O8">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P8">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q8">
+        <v>0.0995426179255</v>
+      </c>
+      <c r="R8">
+        <v>0.398170471702</v>
+      </c>
+      <c r="S8">
+        <v>0.003609143588518136</v>
+      </c>
+      <c r="T8">
+        <v>0.002000065711478828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0788065</v>
+      </c>
+      <c r="H9">
+        <v>0.157613</v>
+      </c>
+      <c r="I9">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J9">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N9">
+        <v>49.664215</v>
+      </c>
+      <c r="O9">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P9">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q9">
+        <v>1.304620986465833</v>
+      </c>
+      <c r="R9">
+        <v>7.827725918795</v>
+      </c>
+      <c r="S9">
+        <v>0.04730199553595594</v>
+      </c>
+      <c r="T9">
+        <v>0.0393197570430418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0788065</v>
+      </c>
+      <c r="H10">
+        <v>0.157613</v>
+      </c>
+      <c r="I10">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J10">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N10">
+        <v>129.521609</v>
+      </c>
+      <c r="O10">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P10">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q10">
+        <v>3.402381559886167</v>
+      </c>
+      <c r="R10">
+        <v>20.414289359317</v>
+      </c>
+      <c r="S10">
+        <v>0.1233610673344546</v>
+      </c>
+      <c r="T10">
+        <v>0.1025438174690541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.0788065</v>
+      </c>
+      <c r="H11">
+        <v>0.157613</v>
+      </c>
+      <c r="I11">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J11">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N11">
+        <v>151.425698</v>
+      </c>
+      <c r="O11">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P11">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q11">
+        <v>3.977776423145667</v>
+      </c>
+      <c r="R11">
+        <v>23.866658538874</v>
+      </c>
+      <c r="S11">
+        <v>0.1442233143285364</v>
+      </c>
+      <c r="T11">
+        <v>0.1198855484866321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="H7">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="N7">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="O7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="P7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="Q7">
-        <v>2.766925877153235</v>
-      </c>
-      <c r="R7">
-        <v>2.766925877153235</v>
-      </c>
-      <c r="S7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="T7">
-        <v>0.1976804696166534</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0788065</v>
+      </c>
+      <c r="H12">
+        <v>0.157613</v>
+      </c>
+      <c r="I12">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J12">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.091743</v>
+      </c>
+      <c r="O12">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P12">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q12">
+        <v>0.1337541482431667</v>
+      </c>
+      <c r="R12">
+        <v>0.802524889459</v>
+      </c>
+      <c r="S12">
+        <v>0.004849560285131556</v>
+      </c>
+      <c r="T12">
+        <v>0.004031194244902669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0788065</v>
+      </c>
+      <c r="H13">
+        <v>0.157613</v>
+      </c>
+      <c r="I13">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J13">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.501953</v>
+      </c>
+      <c r="N13">
+        <v>59.003906</v>
+      </c>
+      <c r="O13">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P13">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q13">
+        <v>2.3249456590945</v>
+      </c>
+      <c r="R13">
+        <v>9.299782636378</v>
+      </c>
+      <c r="S13">
+        <v>0.08429618282145294</v>
+      </c>
+      <c r="T13">
+        <v>0.04671410287085936</v>
       </c>
     </row>
   </sheetData>
